--- a/StructureDefinition-profile-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-profile-ExplanationOfBenefit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8102057-06:00</t>
+    <t>2026-02-20T11:59:20.8117844-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -456,7 +456,7 @@
     <t>traceNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.traceNumber|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.traceNumber}
 </t>
   </si>
   <si>
@@ -479,7 +479,7 @@
     <t>event</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.event|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.event}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>decision</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.decision|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.decision}
 </t>
   </si>
   <si>
@@ -517,7 +517,7 @@
     <t>diagnosisRelatedGroup</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.diagnosisRelatedGroup|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.diagnosisRelatedGroup}
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>patientPaid</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.patientPaid|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.patientPaid}
 </t>
   </si>
   <si>
@@ -555,7 +555,7 @@
     <t>encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -1062,7 +1062,7 @@
     <t>related</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.related|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.related}
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
     <t>payee</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.payee|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.payee}
 </t>
   </si>
   <si>
@@ -1440,7 +1440,7 @@
     <t>careTeam</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.careTeam|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.careTeam}
 </t>
   </si>
   <si>
@@ -1569,7 +1569,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.supportingInfo|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.supportingInfo}
 </t>
   </si>
   <si>
@@ -1714,7 +1714,7 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.diagnosis|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.diagnosis}
 </t>
   </si>
   <si>
@@ -1845,7 +1845,7 @@
     <t>procedure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.procedure|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.procedure}
 </t>
   </si>
   <si>
@@ -1974,7 +1974,7 @@
     <t>insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.insurance|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.insurance}
 </t>
   </si>
   <si>
@@ -2057,7 +2057,7 @@
     <t>accident</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.accident|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.accident}
 </t>
   </si>
   <si>
@@ -2104,7 +2104,7 @@
     <t>Type of accident: work place, auto, etc.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActIncidentCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActIncidentCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.accident.location[x]</t>
@@ -2147,7 +2147,7 @@
     <t>item</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.item|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.item}
 </t>
   </si>
   <si>
@@ -2748,7 +2748,7 @@
     <t>addItem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.addItem|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.addItem}
 </t>
   </si>
   <si>
@@ -2971,7 +2971,7 @@
     <t>total</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.total|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.total}
 </t>
   </si>
   <si>
@@ -3029,7 +3029,7 @@
     <t>payment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.payment|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.payment}
 </t>
   </si>
   <si>
@@ -3196,7 +3196,7 @@
     <t>processNote</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.processNote|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.processNote}
 </t>
   </si>
   <si>
@@ -3302,7 +3302,7 @@
     <t>benefitBalance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.benefitBalance|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExplanationOfBenefit.benefitBalance}
 </t>
   </si>
   <si>
@@ -3805,7 +3805,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.32421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
